--- a/static/sample/import_question_sample.xlsx
+++ b/static/sample/import_question_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sokunthaneth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Online-Examination-System\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6184493-C051-44D9-B7BF-FF34148A31EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13838F8-392F-4EFE-95B7-DC74FDE01E4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IQ" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -62,51 +62,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>8:4 as 10:</t>
-  </si>
-  <si>
-    <t>Book is to Reading as Fork is to:</t>
-  </si>
-  <si>
-    <t>drawing</t>
-  </si>
-  <si>
-    <t>writing</t>
-  </si>
-  <si>
-    <t>stirring</t>
-  </si>
-  <si>
-    <t>eating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which one of the following things is the least like the others? </t>
-  </si>
-  <si>
-    <t>poem</t>
-  </si>
-  <si>
-    <t>novel</t>
-  </si>
-  <si>
-    <t>painting</t>
-  </si>
-  <si>
-    <t>statue</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>Mary, who is sixteen years old, is four times as old as her brother. How old will Mary be when she is twice as old as her brother?</t>
-  </si>
-  <si>
-    <t>John needs 13 bottles of water from the store. John can only carry 3 at a time. What's the minimum number of trips John needs to make to the store?</t>
-  </si>
-  <si>
-    <t>If you rearrange the letters “LNGEDNA” you have the name of a(n):</t>
-  </si>
-  <si>
     <t>Animal</t>
   </si>
   <si>
@@ -122,46 +77,268 @@
     <t>Ocean</t>
   </si>
   <si>
-    <t>Ralph likes 25 but not 24; he likes 400 but not 300; he likes 144 but not 145. Which does he like:</t>
-  </si>
-  <si>
-    <t>G is fatter than H but not as fat as M. Q is also not as fat as M. Who is the leanest person in the group?</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>There are five buses M, N, O, P, Q in a row on a road. Bus M is standing at the front and Q is standing at the back end. Bus N stands between M and O. Bus P stands between O and Q. Which bus stands in the middle of the five?</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t xml:space="preserve">Which number should come next in this series? 1, 4, 9, 16, 25, ?? </t>
   </si>
   <si>
-    <t>Which number should come next in this series? 1, 1, 2, 3, 5, 8, 13, ??</t>
-  </si>
-  <si>
-    <t>Which number should come next in this series? 120, 440, 960, 1680, ??</t>
-  </si>
-  <si>
-    <t>Which one of the five choices makes the best comparison? PEACH is to HCAEP. As 46251 is to ??</t>
-  </si>
-  <si>
-    <t>Which number should come next in this series? 3, 5, 8, 13, 21, ??</t>
+    <t>Which one of the five is least like the other four?</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Which of the following words is closest in meaning to APPREHENSIVE?</t>
+  </si>
+  <si>
+    <t>Thorough</t>
+  </si>
+  <si>
+    <t>Foolish</t>
+  </si>
+  <si>
+    <t>Anxious</t>
+  </si>
+  <si>
+    <t>Distraught</t>
+  </si>
+  <si>
+    <t>Comprehensive</t>
+  </si>
+  <si>
+    <t>The price of an article was cut 20% for a sale.  By what percent must the discounted item be increased to again sell the article at the original price?</t>
+  </si>
+  <si>
+    <t>Which number should come next in this series? 25,24,22,19,15</t>
+  </si>
+  <si>
+    <t>Mary had a number of cookies. After eating one, she gave half the remainder to her sister. After eating another cookie, she gave half of what was left to her brother. Mary now had only five cookies left. How many cookies did she start with?</t>
+  </si>
+  <si>
+    <t>How many birthdays does the average man have?</t>
+  </si>
+  <si>
+    <t>Every year</t>
+  </si>
+  <si>
+    <t>Which one of the five makes the best comparison?Milk is to glass as letter is to:</t>
+  </si>
+  <si>
+    <t>Stamp</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Envelope</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>How many animals of each sex did Moses take on the ark?</t>
+  </si>
+  <si>
+    <t>A store reduced the price of one of its products by 25 percent. What percentage of the reduced price must it be increased by to put the product back to its original price?</t>
+  </si>
+  <si>
+    <t>Nia,  twelve years old, is three times as old as her sister. How old will Nia be when sheis twice as old as her sister?</t>
+  </si>
+  <si>
+    <t>Which one of the five makes the best comparison?   CAACCAC is to 3113313 as CACAACAC is to:</t>
+  </si>
+  <si>
+    <t>Some months have 31 days; how many have 28?</t>
+  </si>
+  <si>
+    <t>If you rearrange the letters "BARBIT", you would have the name of a:</t>
+  </si>
+  <si>
+    <t>SOLICITOR is to ADVISOR as SYCOPHANT is to:</t>
+  </si>
+  <si>
+    <t>Blackmailer</t>
+  </si>
+  <si>
+    <t>Fawner</t>
+  </si>
+  <si>
+    <t>Flautist</t>
+  </si>
+  <si>
+    <t>Nobleman</t>
+  </si>
+  <si>
+    <t>Ruffian</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Which one of the five makes the best comparison? Brother is to sister as niece is to:</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Nephew</t>
+  </si>
+  <si>
+    <t>LIGHT BULB is to FILAMENT as WHEEL is to:</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Spoke</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Which one of the five letters is least like the other four?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>At a conference, 12 members shook hands with each other before &amp; after the meeting. How many total number of hand shakes occurred?</t>
+  </si>
+  <si>
+    <t>The day after the day after tomorrow is four days before Monday. What day is it today?</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>A fisherman has 5 fishes (namely A, B, C,D, E) each having a different weight. (i) A weighs twice as much as B. (ii) B weighs four and a half times as much as C. (iii)C weighs half as much as D. (iv) D weighs half as much as E. (v) E weighs less than A but more than C.</t>
+  </si>
+  <si>
+    <t>(i) A</t>
+  </si>
+  <si>
+    <t>(ii) B</t>
+  </si>
+  <si>
+    <t>(iii)C</t>
+  </si>
+  <si>
+    <t>(iv) D</t>
+  </si>
+  <si>
+    <t>(v) E</t>
+  </si>
+  <si>
+    <t>6121135 is to flame as 21215120 is to ?</t>
+  </si>
+  <si>
+    <t>A. voice</t>
+  </si>
+  <si>
+    <t>B. bald</t>
+  </si>
+  <si>
+    <t>C. bloat</t>
+  </si>
+  <si>
+    <t>D. castle</t>
+  </si>
+  <si>
+    <t>Forest is to tree as tree is to ?</t>
+  </si>
+  <si>
+    <t>A. plant</t>
+  </si>
+  <si>
+    <t>B. leaf</t>
+  </si>
+  <si>
+    <t>C. branch</t>
+  </si>
+  <si>
+    <t>D. mangrove</t>
+  </si>
+  <si>
+    <t>Which of the following can be arranged into a 5-letter English word?</t>
+  </si>
+  <si>
+    <t>H R G S T</t>
+  </si>
+  <si>
+    <t>R I L S A</t>
+  </si>
+  <si>
+    <t>T O O M T</t>
+  </si>
+  <si>
+    <t>W Q R G S</t>
   </si>
 </sst>
 </file>
@@ -645,11 +822,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1005,43 +1193,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H64"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H64"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="88.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1055,43 +1248,43 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>43235</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3">
+      <c r="G3" s="3">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4">
+      <c r="G4" s="3">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5">
+      <c r="G5" s="3">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1100,334 +1293,334 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>23</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>45</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
         <v>46</v>
       </c>
-      <c r="G6">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8">
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14">
-        <v>2600</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>3240</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <v>3040</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <v>2400</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <v>25641</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>26451</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <v>12654</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <v>51462</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <v>15264</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23">
+      <c r="H33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G27">
+      <c r="H38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37">
-        <v>20</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G38">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G39">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G40">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G41">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1436,44 +1629,44 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
+      <c r="G43" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G44" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <v>5</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1482,44 +1675,44 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="3">
+        <v>15</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
+      <c r="G48" s="3">
+        <v>18</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
+      <c r="G49" s="3">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" s="3">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" s="3">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1528,44 +1721,44 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="G52" s="3">
+        <v>31313113</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
+      <c r="G53" s="3">
+        <v>31311313</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G54">
-        <v>124</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" s="3">
+        <v>31311131</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G55">
-        <v>200</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" s="3">
+        <v>13133313</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G56">
-        <v>1600</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" s="3">
+        <v>13133131</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1574,74 +1767,585 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
+      <c r="G58" s="3">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" s="3">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" s="3">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
+      <c r="G61" s="3">
+        <v>12</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>78</v>
+      </c>
+      <c r="G93" s="3">
+        <v>100</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>132</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="3">
+        <v>145</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="3">
+        <v>144</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="3">
+        <v>121</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>79</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="6"/>
+      <c r="G104" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="6"/>
+      <c r="G105" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="6"/>
+      <c r="G106" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="6"/>
+      <c r="G107" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>91</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="6"/>
+      <c r="G109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>96</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/static/sample/import_question_sample.xlsx
+++ b/static/sample/import_question_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Online-Examination-System\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KIT Online Examination System\Web App -Online Examination System\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13838F8-392F-4EFE-95B7-DC74FDE01E4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA1494-A5BA-4148-A3A0-ADA2AFCDF48E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,8 +1196,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2338,7 @@
         <v>104</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="5:8" x14ac:dyDescent="0.25">
